--- a/biology/Médecine/Strabisme/Strabisme.xlsx
+++ b/biology/Médecine/Strabisme/Strabisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le strabisme, (du grec στραβισμός (strabismós) ; cf. στραβίζειν (strabízein) « loucher », στραβός (strabós) « louche ») ou syndrome de strabisme pour les scientifiques est un défaut de parallélisme des axes visuels. C’est un syndrome neurosensoriel complexe. Le strabisme perturbe la correspondance sensorielle et motrice des deux yeux. On notera que dans le langage courant, le terme « loucher » s'applique à un défaut de parallélisme convergent.
 </t>
@@ -513,15 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Types
-Les strabismes sont nommés en fonction du sens de la déviation des axes visuels : convergents, divergents ou verticaux.
+          <t>Types</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les strabismes sont nommés en fonction du sens de la déviation des axes visuels : convergents, divergents ou verticaux.
 Le strabisme de l'enfant (enfant qui « louche ») est très majoritairement un strabisme convergent apparaissant de la naissance à l'âge de 5 ou 6 ans. Les strabismes divergents sont souvent d'apparition plus tardive (entre 6 et 10 ans).
 Le strabisme perturbe la vision et son développement.
-Phénomène sensoriel
-Ce strabisme permanent entraîne une diplopie : l'enfant voit double. Pour remédier à ce handicap sensoriel, le cerveau neutralise (il « ignore ») l'image fournie par l'un des deux yeux dans la région centrale du champ de vision, là où la vision est la meilleure. La conséquence est double. Dans un premier temps, la vision binoculaire participant au sens du relief n'est pas acquise par le cerveau ; cette perte est définitive si le strabisme débute dans les premiers mois de vie. Dans un second temps, l'œil qui n'est pas privilégié va progressivement s'affaiblir et perdre son acuité visuelle : c'est l'amblyopie. Là aussi, cette perte peut devenir définitive et totale si un traitement n'est pas effectué rapidement : l'enfant devient alors pratiquement aveugle d'un œil.
-Diagnostic
-Le strabisme de l'enfant et ses conséquences est un problème auquel doit être attentif le médecin généraliste et le pédiatre afin de le dépister au plus tôt. Le plus souvent, l'enfant est incapable de se plaindre de vision double. C'est le strabisme qui doit alerter les parents. Il est maintenant possible d'apprécier l'acuité visuelle au cours de la première année et un bilan orthoptique réalisé par un orthoptiste sera utile au diagnostic.
-Le reste du bilan recherche un diagnostic différentiel (ils sont rares) par le fond d'œil : rétinoblastome et cataracte congénitale.
 </t>
         </is>
       </c>
@@ -547,10 +559,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Chez l'enfant</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Phénomène sensoriel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce strabisme permanent entraîne une diplopie : l'enfant voit double. Pour remédier à ce handicap sensoriel, le cerveau neutralise (il « ignore ») l'image fournie par l'un des deux yeux dans la région centrale du champ de vision, là où la vision est la meilleure. La conséquence est double. Dans un premier temps, la vision binoculaire participant au sens du relief n'est pas acquise par le cerveau ; cette perte est définitive si le strabisme débute dans les premiers mois de vie. Dans un second temps, l'œil qui n'est pas privilégié va progressivement s'affaiblir et perdre son acuité visuelle : c'est l'amblyopie. Là aussi, cette perte peut devenir définitive et totale si un traitement n'est pas effectué rapidement : l'enfant devient alors pratiquement aveugle d'un œil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Strabisme</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Strabisme</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Chez l'enfant</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le strabisme de l'enfant et ses conséquences est un problème auquel doit être attentif le médecin généraliste et le pédiatre afin de le dépister au plus tôt. Le plus souvent, l'enfant est incapable de se plaindre de vision double. C'est le strabisme qui doit alerter les parents. Il est maintenant possible d'apprécier l'acuité visuelle au cours de la première année et un bilan orthoptique réalisé par un orthoptiste sera utile au diagnostic.
+Le reste du bilan recherche un diagnostic différentiel (ils sont rares) par le fond d'œil : rétinoblastome et cataracte congénitale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strabisme</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Strabisme</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans un premier temps, c'est l'amblyopie qui doit être évitée : les deux yeux ne fixant pas le même objet, le cerveau supprime une image pour éviter de voir double, entraînant ainsi un défaut de la maturation visuelle. L'amblyopie doit être dépistée précocement chez tout enfant strabique. Sa prévention repose sur la pénalisation de l'œil sain afin de stimuler la vision par l'œil amblyope. Cela peut être fait, par exemple, en masquant l'œil privilégié par un cache opaque à poser sur la peau, afin de forcer l'œil « paresseux » à travailler. 
 La part accommodative du strabisme, c'est-à-dire de l'amblyopie lorsque celle-ci n'est pas encore totale, doit être traitée par correction optique totale (elle est déterminée par cycloplégie). La myopie est corrigée avec des verres concaves, l'astigmatisme par des verres cylindriques et l'hypermétropie par des verres convexes. 
@@ -561,33 +650,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Strabisme</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Strabisme</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Conséquence psychologique et qualité de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans une étude américaine[1], 85 % de patients adultes souffrant d'un strabisme ont « rapporté avoir eu des problèmes au travail, à l'école ou en faisant du sport à cause de leur strabisme »[2] ; 70 % de ces mêmes patients ont souffert d'un impact négatif du strabisme sur leur estime de soi[3]. L'impact psychologique du strabisme prend souvent sa source dans l'enfance, à cause de deux facteurs :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans une étude américaine, 85 % de patients adultes souffrant d'un strabisme ont « rapporté avoir eu des problèmes au travail, à l'école ou en faisant du sport à cause de leur strabisme » ; 70 % de ces mêmes patients ont souffert d'un impact négatif du strabisme sur leur estime de soi. L'impact psychologique du strabisme prend souvent sa source dans l'enfance, à cause de deux facteurs :
 un préjudice esthétique pouvant mener à des moqueries ;
 une difficulté à percevoir les distances, ce qui n'est généralement pas un problème, sauf dans les activités sportives telles que (typiquement) les sports de balle, où un enfant souffrant d'un strabisme sera souvent plus maladroit, ce qui peut également jouer sur l'estime de soi.
 Le masquage temporaire d'un œil, ou prismes temporaires peuvent également, par leur aspect inhabituel, mener à des moqueries ; il est alors indispensable de bien accompagner l'enfant durant le processus et de le rassurer, tout en insistant sur l'importance du traitement et l'aspect temporaire de la chose.
@@ -596,71 +687,75 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Strabisme</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Strabisme</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Personnalités atteintes de strabisme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le peintre Rembrandt (1606-1669) a fait de nombreux autoportraits, la quasi-totalité montrant un strabisme divergent[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le peintre Rembrandt (1606-1669) a fait de nombreux autoportraits, la quasi-totalité montrant un strabisme divergent.
 Le claveciniste de Louis XIV, Jean-Henry d'Anglebert, présentait un fort strabisme, comme le montre son portrait par Pierre Mignard. 
 L'ancien président argentin Néstor Kirchner souffrait d'un strabisme divergent.
 Le philosophe Jean-Paul Sartre présentait un fort strabisme exotropique de l'œil droit ; l'acteur Marty Feldman, de l'œil gauche.
-La chanteuse Dalida[5] et le chanteur Joe Dassin étaient atteints d'un strabisme convergent.
-L'homme politique Émile Ollivier, chef de gouvernement sous Napoléon III, souffrait d'un fort strabisme convergent - qui lui valut, selon Prosper Mérimée, l'antipathie de l'impératrice Eugénie de Montijo[6].
+La chanteuse Dalida et le chanteur Joe Dassin étaient atteints d'un strabisme convergent.
+L'homme politique Émile Ollivier, chef de gouvernement sous Napoléon III, souffrait d'un fort strabisme convergent - qui lui valut, selon Prosper Mérimée, l'antipathie de l'impératrice Eugénie de Montijo.
 Pascal Boniface, Catherine Destivelle, Nelson Piquet, Brigitte Bardot, Henry Fonda, Denzel Washington, Russell Crowe, Forest Whitaker, Groucho Marx, Hugh Grant, Bruno Lochet, John Malkovich, Heidi Klum, Paris Hilton, Kate Moss, Penélope Cruz, Claudia Schiffer, Barbra Streisand, Alicia Keys, Johnny Rotten, Harry Belafonte, Abraham Lincoln, John F. Kennedy, Dominique Strauss-Kahn, Marion Maréchal, Bertrand Serlet, The Notorious B.I.G., Jean-Bertrand Aristide, ainsi que de nombreuses autres personnalités du sport, du cinéma, du show business, de la politique, sont dotées d'un léger strabisme. Les deux membres centraux du groupe français rock Bérurier Noir, Loran et François, présentent eux aussi un léger strabisme divergent.
-L'ancien président directeur général de la SNCF Guillaume Pepy est également atteint de strabisme[7].
+L'ancien président directeur général de la SNCF Guillaume Pepy est également atteint de strabisme.
 La reine Claude de France (1499-1524) était elle aussi vraisemblablement atteinte de cette maladie sur son œil gauche.
 Le danseur québécois Christian Millette connu pour ses participations à Danse Avec Les Stars souffre d'un strabisme convergent.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Strabisme</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Strabisme</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Scientifiques spécialistes du strabisme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Émile Javal (1839-1907), médecin français, considéré comme le père de l'orthoptie;
 Aurora Villa (1913-2002), ophtalmologue espagnole.</t>
